--- a/biology/Botanique/Cynometra/Cynometra.xlsx
+++ b/biology/Botanique/Cynometra/Cynometra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynometra est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Caesalpinioideae, à répartition pantropicale, qui comprend environ 90 espèces acceptées[2].  
-Ce sont des arbres ou des arbustes qui se rencontrent dans les forêts pluviales tropicales de plaine et dans les forêts marécageuses, souvent le long des cours d'eau ou dans des stations sublittorales[3].
-Certaines espèces sont exploitées pour leur bois commercialisé comme bois d'œuvre pour la construction, les quilles de navires, les traverses de chemin de fer, les revêtements de sol et la menuiserie, comme bois de chauffage, comme arbre d'ombrage et comme plantes mellifères[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynometra est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Caesalpinioideae, à répartition pantropicale, qui comprend environ 90 espèces acceptées.  
+Ce sont des arbres ou des arbustes qui se rencontrent dans les forêts pluviales tropicales de plaine et dans les forêts marécageuses, souvent le long des cours d'eau ou dans des stations sublittorales.
+Certaines espèces sont exploitées pour leur bois commercialisé comme bois d'œuvre pour la construction, les quilles de navires, les traverses de chemin de fer, les revêtements de sol et la menuiserie, comme bois de chauffage, comme arbre d'ombrage et comme plantes mellifères.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (23 décembre 2018)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (23 décembre 2018) :
 Cynometra abrahamii Du Puy &amp; R.Rabev.
 Cynometra alexandri C.H.Wright
 Cynometra americana Vogel
